--- a/NEW HR/DONE/BAYBAY, EDLYN.xlsx
+++ b/NEW HR/DONE/BAYBAY, EDLYN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7BB7F7-0FCA-4C6B-A222-A9C9D6489212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -324,7 +325,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -703,6 +704,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -715,20 +725,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1425,7 +1426,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,7 +1469,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1532,7 +1533,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,7 +1593,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +1659,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1721,7 +1722,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1819,7 +1820,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1878,7 +1879,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +1944,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1986,7 +1987,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +2062,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2247,7 +2248,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +2314,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2371,7 +2372,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2437,7 +2438,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2493,7 +2494,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2568,7 +2569,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2611,7 +2612,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2677,7 +2678,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2733,7 +2734,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2831,7 +2832,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2894,7 +2895,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2943,7 +2944,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2960,25 +2961,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K137" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K137" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2990,25 +2991,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3020,13 +3021,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3035,14 +3036,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3346,7 +3347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3356,7 +3357,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3364,34 +3365,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A70" activePane="bottomLeft"/>
+      <pane ySplit="4428" topLeftCell="A75" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3403,16 +3404,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3421,16 +3422,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3441,16 +3442,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3458,7 +3459,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3471,24 +3472,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3532,7 +3533,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>53.75</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3542,12 +3543,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>61.75</v>
+        <v>64.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3569,7 +3570,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3589,7 +3590,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3609,7 +3610,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3629,7 +3630,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3649,7 +3650,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3669,7 +3670,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3695,7 +3696,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3715,7 +3716,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3735,7 +3736,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3755,7 +3756,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3775,7 +3776,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3795,7 +3796,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3821,7 +3822,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>75</v>
@@ -3841,7 +3842,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
         <v>43</v>
       </c>
@@ -3859,7 +3860,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -3879,7 +3880,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -3905,7 +3906,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -3925,7 +3926,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -3951,7 +3952,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -3971,7 +3972,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -3995,7 +3996,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>90</v>
@@ -4015,7 +4016,7 @@
         <v>43626</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43647</v>
       </c>
@@ -4041,7 +4042,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43678</v>
       </c>
@@ -4061,7 +4062,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43709</v>
       </c>
@@ -4087,7 +4088,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43739</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>51</v>
@@ -4135,7 +4136,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43770</v>
       </c>
@@ -4155,7 +4156,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43800</v>
       </c>
@@ -4181,7 +4182,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
         <v>44</v>
       </c>
@@ -4199,7 +4200,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -4223,7 +4224,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43862</v>
       </c>
@@ -4249,7 +4250,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43891</v>
       </c>
@@ -4269,7 +4270,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43922</v>
       </c>
@@ -4289,7 +4290,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43952</v>
       </c>
@@ -4309,7 +4310,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43983</v>
       </c>
@@ -4329,7 +4330,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44013</v>
       </c>
@@ -4353,7 +4354,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44044</v>
       </c>
@@ -4379,7 +4380,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44075</v>
       </c>
@@ -4405,7 +4406,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44105</v>
       </c>
@@ -4425,7 +4426,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44136</v>
       </c>
@@ -4445,7 +4446,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44166</v>
       </c>
@@ -4469,7 +4470,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="48" t="s">
         <v>45</v>
       </c>
@@ -4487,7 +4488,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44197</v>
       </c>
@@ -4507,7 +4508,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44228</v>
       </c>
@@ -4527,7 +4528,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44256</v>
       </c>
@@ -4547,7 +4548,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44287</v>
       </c>
@@ -4567,7 +4568,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44317</v>
       </c>
@@ -4587,7 +4588,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44348</v>
       </c>
@@ -4607,7 +4608,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44378</v>
       </c>
@@ -4627,7 +4628,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44409</v>
       </c>
@@ -4647,7 +4648,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44440</v>
       </c>
@@ -4667,7 +4668,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44470</v>
       </c>
@@ -4687,7 +4688,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44501</v>
       </c>
@@ -4707,7 +4708,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44531</v>
       </c>
@@ -4731,7 +4732,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="48" t="s">
         <v>46</v>
       </c>
@@ -4749,7 +4750,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44562</v>
       </c>
@@ -4769,7 +4770,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44593</v>
       </c>
@@ -4789,7 +4790,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44621</v>
       </c>
@@ -4809,7 +4810,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44652</v>
       </c>
@@ -4829,7 +4830,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44682</v>
       </c>
@@ -4849,7 +4850,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44713</v>
       </c>
@@ -4869,7 +4870,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44743</v>
       </c>
@@ -4889,7 +4890,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44774</v>
       </c>
@@ -4909,7 +4910,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44805</v>
       </c>
@@ -4929,7 +4930,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44835</v>
       </c>
@@ -4949,7 +4950,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44866</v>
       </c>
@@ -4969,7 +4970,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44896</v>
       </c>
@@ -4993,7 +4994,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="48" t="s">
         <v>47</v>
       </c>
@@ -5011,7 +5012,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44927</v>
       </c>
@@ -5031,7 +5032,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44958</v>
       </c>
@@ -5051,7 +5052,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44986</v>
       </c>
@@ -5071,42 +5072,50 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>45017</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>45047</v>
+      </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>45078</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -5121,8 +5130,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <v>45108</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -5137,8 +5148,10 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>45139</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -5153,8 +5166,10 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>45170</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5169,8 +5184,10 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40">
+        <v>45200</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5185,8 +5202,10 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <v>45231</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5201,8 +5220,10 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="40">
+        <v>45261</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -5217,8 +5238,10 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="40">
+        <v>45292</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -5233,8 +5256,10 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="40">
+        <v>45323</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -5249,8 +5274,10 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="40">
+        <v>45352</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -5265,8 +5292,10 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40">
+        <v>45383</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5281,8 +5310,10 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="40">
+        <v>45413</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -5297,8 +5328,10 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40">
+        <v>45444</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5313,8 +5346,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="40">
+        <v>45474</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -5329,8 +5364,10 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="40">
+        <v>45505</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -5345,8 +5382,10 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40">
+        <v>45536</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -5361,8 +5400,10 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40">
+        <v>45566</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -5377,8 +5418,10 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="40"/>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40">
+        <v>45597</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -5393,8 +5436,10 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="40">
+        <v>45627</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5409,8 +5454,10 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="40">
+        <v>45658</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5425,8 +5472,10 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="40">
+        <v>45689</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -5441,8 +5490,10 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="40">
+        <v>45717</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -5457,8 +5508,10 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="40">
+        <v>45748</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -5473,8 +5526,10 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="40">
+        <v>45778</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -5489,8 +5544,10 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="40">
+        <v>45809</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -5505,8 +5562,10 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="40">
+        <v>45839</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -5521,8 +5580,10 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="40">
+        <v>45870</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -5537,8 +5598,10 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="40">
+        <v>45901</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -5553,8 +5616,10 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="40">
+        <v>45931</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -5569,8 +5634,10 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="40">
+        <v>45962</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -5585,8 +5652,10 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="40">
+        <v>45992</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -5601,8 +5670,10 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="40"/>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="40">
+        <v>46023</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -5617,8 +5688,10 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="40">
+        <v>46054</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -5633,8 +5706,10 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="40">
+        <v>46082</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -5649,8 +5724,10 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="40">
+        <v>46113</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -5665,8 +5742,10 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="40">
+        <v>46143</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -5681,8 +5760,10 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="40">
+        <v>46174</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -5697,8 +5778,10 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="40">
+        <v>46204</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -5713,8 +5796,10 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="40">
+        <v>46235</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -5729,8 +5814,10 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="40">
+        <v>46266</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -5745,8 +5832,10 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="40">
+        <v>46296</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -5761,8 +5850,10 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="40">
+        <v>46327</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -5777,8 +5868,10 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="40">
+        <v>46357</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -5793,8 +5886,10 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="40">
+        <v>46388</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -5809,7 +5904,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5825,7 +5920,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5841,7 +5936,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5857,7 +5952,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5873,7 +5968,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5889,7 +5984,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5905,7 +6000,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5921,7 +6016,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5937,7 +6032,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -5953,7 +6048,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="41"/>
       <c r="B137" s="15"/>
       <c r="C137" s="42"/>
@@ -5971,23 +6066,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6010,34 +6105,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K141"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A40" activePane="bottomLeft"/>
+      <pane ySplit="4428" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6050,16 +6145,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6071,19 +6166,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54" t="str">
+      <c r="F3" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6095,19 +6190,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v/>
       </c>
-      <c r="G4" s="55"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6115,7 +6210,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6128,24 +6223,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6180,7 +6275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6204,7 +6299,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6226,7 +6321,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6248,7 +6343,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>51</v>
@@ -6268,7 +6363,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -6292,7 +6387,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>52</v>
@@ -6314,7 +6409,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>52</v>
@@ -6336,7 +6431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43160</v>
       </c>
@@ -6360,7 +6455,7 @@
         <v>43172</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43221</v>
       </c>
@@ -6384,7 +6479,7 @@
         <v>43228</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>57</v>
@@ -6406,7 +6501,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>51</v>
@@ -6428,7 +6523,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>56</v>
@@ -6450,7 +6545,7 @@
         <v>43251</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>58</v>
@@ -6470,7 +6565,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43252</v>
       </c>
@@ -6492,7 +6587,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43282</v>
       </c>
@@ -6516,7 +6611,7 @@
         <v>43267</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>57</v>
@@ -6538,7 +6633,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>56</v>
@@ -6560,7 +6655,7 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>57</v>
@@ -6582,7 +6677,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43313</v>
       </c>
@@ -6604,7 +6699,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43344</v>
       </c>
@@ -6628,7 +6723,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>66</v>
@@ -6648,7 +6743,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43374</v>
       </c>
@@ -6672,7 +6767,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>67</v>
@@ -6692,7 +6787,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43405</v>
       </c>
@@ -6716,7 +6811,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>69</v>
@@ -6736,7 +6831,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43435</v>
       </c>
@@ -6758,7 +6853,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="48" t="s">
         <v>43</v>
       </c>
@@ -6776,7 +6871,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43497</v>
       </c>
@@ -6800,7 +6895,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>56</v>
@@ -6822,7 +6917,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>57</v>
@@ -6844,7 +6939,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43525</v>
       </c>
@@ -6868,7 +6963,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>56</v>
@@ -6890,7 +6985,7 @@
         <v>43540</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43586</v>
       </c>
@@ -6914,7 +7009,7 @@
         <v>43613</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>56</v>
@@ -6936,7 +7031,7 @@
         <v>43595</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>51</v>
@@ -6958,7 +7053,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43647</v>
       </c>
@@ -6982,7 +7077,7 @@
         <v>43637</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43739</v>
       </c>
@@ -7006,7 +7101,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>43770</v>
       </c>
@@ -7030,7 +7125,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="48" t="s">
         <v>47</v>
       </c>
@@ -7048,7 +7143,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>45017</v>
       </c>
@@ -7072,7 +7167,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -7088,7 +7183,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -7104,7 +7199,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -7120,7 +7215,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -7136,7 +7231,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -7152,7 +7247,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -7168,7 +7263,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7184,7 +7279,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7200,7 +7295,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7216,7 +7311,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7232,7 +7327,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7248,7 +7343,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7264,7 +7359,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7280,7 +7375,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7296,7 +7391,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7312,7 +7407,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7328,7 +7423,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7344,7 +7439,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7360,7 +7455,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7376,7 +7471,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7392,7 +7487,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7408,7 +7503,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7424,7 +7519,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7440,7 +7535,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7456,7 +7551,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7472,7 +7567,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7488,7 +7583,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7504,7 +7599,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7520,7 +7615,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7536,7 +7631,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7552,7 +7647,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7568,7 +7663,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7584,7 +7679,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7600,7 +7695,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7616,7 +7711,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7632,7 +7727,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7648,7 +7743,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7664,7 +7759,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7680,7 +7775,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7696,7 +7791,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7712,7 +7807,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7728,7 +7823,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7744,7 +7839,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7760,7 +7855,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7776,7 +7871,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7792,7 +7887,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7808,7 +7903,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7824,7 +7919,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7840,7 +7935,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7856,7 +7951,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7872,7 +7967,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7888,7 +7983,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7904,7 +7999,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7920,7 +8015,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7936,7 +8031,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7952,7 +8047,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7968,7 +8063,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7984,7 +8079,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -8000,7 +8095,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -8016,7 +8111,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8032,7 +8127,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8048,7 +8143,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8064,7 +8159,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8080,7 +8175,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8096,7 +8191,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8112,7 +8207,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8128,7 +8223,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8144,7 +8239,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8160,7 +8255,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8176,7 +8271,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8192,7 +8287,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8208,7 +8303,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8224,7 +8319,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8240,7 +8335,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8256,7 +8351,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8272,7 +8367,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8288,7 +8383,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8304,7 +8399,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8320,7 +8415,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8336,7 +8431,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8352,7 +8447,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8368,7 +8463,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8384,7 +8479,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8400,7 +8495,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8416,7 +8511,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8432,7 +8527,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8448,7 +8543,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -8464,7 +8559,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -8480,7 +8575,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -8496,7 +8591,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -8512,7 +8607,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -8528,7 +8623,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -8544,7 +8639,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="41"/>
       <c r="B141" s="15"/>
       <c r="C141" s="42"/>
@@ -8575,10 +8670,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8601,7 +8696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8609,21 +8704,21 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8636,7 +8731,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8665,7 +8760,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>52.625</v>
       </c>
@@ -8695,17 +8790,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8726,7 +8821,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8753,7 +8848,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8779,7 +8874,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8805,7 +8900,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8831,7 +8926,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8857,7 +8952,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8883,7 +8978,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8909,7 +9004,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8935,7 +9030,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8955,7 +9050,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8975,7 +9070,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8995,7 +9090,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9016,7 +9111,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9037,7 +9132,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9058,7 +9153,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9079,7 +9174,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9100,7 +9195,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9121,7 +9216,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9142,7 +9237,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9163,7 +9258,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9184,7 +9279,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9205,7 +9300,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9226,7 +9321,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9247,7 +9342,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9268,7 +9363,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9289,7 +9384,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9310,7 +9405,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9331,7 +9426,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9352,7 +9447,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9373,7 +9468,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9394,7 +9489,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9415,7 +9510,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9424,7 +9519,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9433,7 +9528,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9442,7 +9537,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9451,7 +9546,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9460,7 +9555,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9469,7 +9564,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9478,7 +9573,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9487,7 +9582,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9496,7 +9591,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9505,7 +9600,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9514,7 +9609,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9523,7 +9618,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9532,7 +9627,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9541,7 +9636,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9550,7 +9645,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9559,7 +9654,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9568,7 +9663,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9577,7 +9672,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9586,7 +9681,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9595,7 +9690,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9604,7 +9699,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9613,7 +9708,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9622,7 +9717,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9631,7 +9726,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9640,7 +9735,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9649,7 +9744,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9658,7 +9753,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9667,7 +9762,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9676,7 +9771,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/BAYBAY, EDLYN.xlsx
+++ b/NEW HR/DONE/BAYBAY, EDLYN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7BB7F7-0FCA-4C6B-A222-A9C9D6489212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="96">
   <si>
     <t>PERIOD</t>
   </si>
@@ -321,11 +320,17 @@
   <si>
     <t>5/16-18,20-26,28-31/2023</t>
   </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>10/16,17/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1426,7 +1431,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1469,7 +1474,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1538,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1598,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1659,7 +1664,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1722,7 +1727,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1820,7 +1825,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1879,7 +1884,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,7 +1949,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1987,7 +1992,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2062,7 +2067,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2248,7 +2253,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2314,7 +2319,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2377,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2443,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2494,7 +2499,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2569,7 +2574,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,7 +2617,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2678,7 +2683,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2734,7 +2739,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2832,7 +2837,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2895,7 +2900,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2944,7 +2949,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2961,25 +2966,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K137" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K137" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2991,25 +2996,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K141" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3021,13 +3026,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3036,14 +3041,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3347,7 +3352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3357,7 +3362,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3365,34 +3370,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A75" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A75" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <selection pane="bottomLeft" activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3413,7 +3418,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3431,7 +3436,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3451,7 +3456,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3459,7 +3464,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3472,7 +3477,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -3489,7 +3494,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3524,7 +3529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3533,7 +3538,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>60</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3543,12 +3548,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>64.25</v>
+        <v>68</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3570,7 +3575,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3590,7 +3595,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3610,7 +3615,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3630,7 +3635,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3650,7 +3655,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3670,7 +3675,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3696,7 +3701,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3716,7 +3721,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3736,7 +3741,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3756,7 +3761,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3776,7 +3781,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3796,7 +3801,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3822,7 +3827,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>75</v>
@@ -3842,7 +3847,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>43</v>
       </c>
@@ -3860,7 +3865,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -3880,7 +3885,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -3906,7 +3911,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -3926,7 +3931,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -3952,7 +3957,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -3972,7 +3977,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43617</v>
       </c>
@@ -3996,7 +4001,7 @@
         <v>43617</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>90</v>
@@ -4016,7 +4021,7 @@
         <v>43626</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43647</v>
       </c>
@@ -4042,7 +4047,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43678</v>
       </c>
@@ -4062,7 +4067,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43709</v>
       </c>
@@ -4088,7 +4093,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43739</v>
       </c>
@@ -4114,7 +4119,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>51</v>
@@ -4136,7 +4141,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43770</v>
       </c>
@@ -4156,7 +4161,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43800</v>
       </c>
@@ -4182,7 +4187,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>44</v>
       </c>
@@ -4200,7 +4205,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -4224,7 +4229,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43862</v>
       </c>
@@ -4250,7 +4255,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43891</v>
       </c>
@@ -4270,7 +4275,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43922</v>
       </c>
@@ -4290,7 +4295,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43952</v>
       </c>
@@ -4310,7 +4315,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43983</v>
       </c>
@@ -4330,7 +4335,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44013</v>
       </c>
@@ -4354,7 +4359,7 @@
         <v>44018</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44044</v>
       </c>
@@ -4380,7 +4385,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44075</v>
       </c>
@@ -4406,7 +4411,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44105</v>
       </c>
@@ -4426,7 +4431,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44136</v>
       </c>
@@ -4446,7 +4451,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44166</v>
       </c>
@@ -4470,7 +4475,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>45</v>
       </c>
@@ -4488,7 +4493,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44197</v>
       </c>
@@ -4508,7 +4513,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44228</v>
       </c>
@@ -4528,7 +4533,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44256</v>
       </c>
@@ -4548,7 +4553,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44287</v>
       </c>
@@ -4568,7 +4573,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44317</v>
       </c>
@@ -4588,7 +4593,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44348</v>
       </c>
@@ -4608,7 +4613,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44378</v>
       </c>
@@ -4628,7 +4633,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44409</v>
       </c>
@@ -4648,7 +4653,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44440</v>
       </c>
@@ -4668,7 +4673,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44470</v>
       </c>
@@ -4688,7 +4693,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44501</v>
       </c>
@@ -4708,7 +4713,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44531</v>
       </c>
@@ -4732,7 +4737,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>46</v>
       </c>
@@ -4750,7 +4755,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44562</v>
       </c>
@@ -4770,7 +4775,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44593</v>
       </c>
@@ -4790,7 +4795,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44621</v>
       </c>
@@ -4810,7 +4815,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44652</v>
       </c>
@@ -4830,7 +4835,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44682</v>
       </c>
@@ -4850,7 +4855,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44713</v>
       </c>
@@ -4870,7 +4875,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44743</v>
       </c>
@@ -4890,7 +4895,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44774</v>
       </c>
@@ -4910,7 +4915,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44805</v>
       </c>
@@ -4930,7 +4935,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44835</v>
       </c>
@@ -4950,7 +4955,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44866</v>
       </c>
@@ -4970,7 +4975,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44896</v>
       </c>
@@ -4994,7 +4999,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>47</v>
       </c>
@@ -5012,7 +5017,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44927</v>
       </c>
@@ -5032,7 +5037,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44958</v>
       </c>
@@ -5052,7 +5057,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44986</v>
       </c>
@@ -5072,7 +5077,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45017</v>
       </c>
@@ -5092,7 +5097,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45047</v>
       </c>
@@ -5112,61 +5117,67 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45078</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45108</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45139</v>
       </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45170</v>
       </c>
@@ -5184,11 +5195,13 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45200</v>
       </c>
-      <c r="B88" s="20"/>
+      <c r="B88" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
@@ -5200,9 +5213,11 @@
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45231</v>
       </c>
@@ -5220,7 +5235,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45261</v>
       </c>
@@ -5238,7 +5253,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45292</v>
       </c>
@@ -5256,7 +5271,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45323</v>
       </c>
@@ -5274,7 +5289,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45352</v>
       </c>
@@ -5292,7 +5307,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45383</v>
       </c>
@@ -5310,7 +5325,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45413</v>
       </c>
@@ -5328,7 +5343,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45444</v>
       </c>
@@ -5346,7 +5361,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45474</v>
       </c>
@@ -5364,7 +5379,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45505</v>
       </c>
@@ -5382,7 +5397,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45536</v>
       </c>
@@ -5400,7 +5415,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45566</v>
       </c>
@@ -5418,7 +5433,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45597</v>
       </c>
@@ -5436,7 +5451,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>45627</v>
       </c>
@@ -5454,7 +5469,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>45658</v>
       </c>
@@ -5472,7 +5487,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>45689</v>
       </c>
@@ -5490,7 +5505,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>45717</v>
       </c>
@@ -5508,7 +5523,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>45748</v>
       </c>
@@ -5526,7 +5541,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>45778</v>
       </c>
@@ -5544,7 +5559,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>45809</v>
       </c>
@@ -5562,7 +5577,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>45839</v>
       </c>
@@ -5580,7 +5595,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>45870</v>
       </c>
@@ -5598,7 +5613,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45901</v>
       </c>
@@ -5616,7 +5631,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>45931</v>
       </c>
@@ -5634,7 +5649,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45962</v>
       </c>
@@ -5652,7 +5667,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45992</v>
       </c>
@@ -5670,7 +5685,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>46023</v>
       </c>
@@ -5688,7 +5703,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>46054</v>
       </c>
@@ -5706,7 +5721,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>46082</v>
       </c>
@@ -5724,7 +5739,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>46113</v>
       </c>
@@ -5742,7 +5757,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>46143</v>
       </c>
@@ -5760,7 +5775,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>46174</v>
       </c>
@@ -5778,7 +5793,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>46204</v>
       </c>
@@ -5796,7 +5811,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>46235</v>
       </c>
@@ -5814,7 +5829,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>46266</v>
       </c>
@@ -5832,7 +5847,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>46296</v>
       </c>
@@ -5850,7 +5865,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>46327</v>
       </c>
@@ -5868,7 +5883,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>46357</v>
       </c>
@@ -5886,7 +5901,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>46388</v>
       </c>
@@ -5904,7 +5919,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5920,7 +5935,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5936,7 +5951,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5952,7 +5967,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5968,7 +5983,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5984,7 +5999,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -6000,7 +6015,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -6016,7 +6031,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -6032,7 +6047,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -6048,7 +6063,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="41"/>
       <c r="B137" s="15"/>
       <c r="C137" s="42"/>
@@ -6079,10 +6094,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6105,34 +6120,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K141"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A10" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <selection pane="bottomLeft" activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6154,7 +6169,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6178,7 +6193,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6202,7 +6217,7 @@
       <c r="J4" s="51"/>
       <c r="K4" s="52"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6210,7 +6225,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6223,7 +6238,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -6240,7 +6255,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6275,7 +6290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6284,7 +6299,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>10.579000000000001</v>
+        <v>0.57900000000000063</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6299,7 +6314,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6321,7 +6336,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6343,7 +6358,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>51</v>
@@ -6363,7 +6378,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -6387,7 +6402,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>52</v>
@@ -6409,7 +6424,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>52</v>
@@ -6431,7 +6446,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43160</v>
       </c>
@@ -6455,7 +6470,7 @@
         <v>43172</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43221</v>
       </c>
@@ -6479,7 +6494,7 @@
         <v>43228</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>57</v>
@@ -6501,7 +6516,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>51</v>
@@ -6523,7 +6538,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>56</v>
@@ -6545,7 +6560,7 @@
         <v>43251</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>58</v>
@@ -6565,7 +6580,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43252</v>
       </c>
@@ -6587,7 +6602,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="15"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43282</v>
       </c>
@@ -6611,7 +6626,7 @@
         <v>43267</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>57</v>
@@ -6633,7 +6648,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>56</v>
@@ -6655,7 +6670,7 @@
         <v>43293</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>57</v>
@@ -6677,7 +6692,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43313</v>
       </c>
@@ -6699,7 +6714,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43344</v>
       </c>
@@ -6723,7 +6738,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>66</v>
@@ -6743,7 +6758,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43374</v>
       </c>
@@ -6767,7 +6782,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>67</v>
@@ -6787,7 +6802,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43405</v>
       </c>
@@ -6811,7 +6826,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>69</v>
@@ -6831,7 +6846,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43435</v>
       </c>
@@ -6853,7 +6868,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
         <v>43</v>
       </c>
@@ -6871,7 +6886,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43497</v>
       </c>
@@ -6895,7 +6910,7 @@
         <v>43507</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>56</v>
@@ -6917,7 +6932,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>57</v>
@@ -6939,7 +6954,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43525</v>
       </c>
@@ -6963,7 +6978,7 @@
         <v>43545</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>56</v>
@@ -6985,7 +7000,7 @@
         <v>43540</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43586</v>
       </c>
@@ -7009,7 +7024,7 @@
         <v>43613</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>56</v>
@@ -7031,7 +7046,7 @@
         <v>43595</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>51</v>
@@ -7053,7 +7068,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43647</v>
       </c>
@@ -7077,7 +7092,7 @@
         <v>43637</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43739</v>
       </c>
@@ -7101,7 +7116,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43770</v>
       </c>
@@ -7125,7 +7140,7 @@
         <v>43778</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="48" t="s">
         <v>47</v>
       </c>
@@ -7143,7 +7158,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>45017</v>
       </c>
@@ -7167,11 +7182,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
-      <c r="B49" s="20"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C49" s="13"/>
-      <c r="D49" s="39"/>
+      <c r="D49" s="39">
+        <v>10</v>
+      </c>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13" t="str">
@@ -7183,7 +7204,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -7199,7 +7220,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -7215,7 +7236,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -7231,7 +7252,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -7247,7 +7268,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -7263,7 +7284,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -7279,7 +7300,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -7295,7 +7316,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7311,7 +7332,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7327,7 +7348,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7343,7 +7364,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7359,7 +7380,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7375,7 +7396,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7391,7 +7412,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7407,7 +7428,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7423,7 +7444,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7439,7 +7460,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7455,7 +7476,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7471,7 +7492,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7487,7 +7508,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7503,7 +7524,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7519,7 +7540,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7535,7 +7556,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7551,7 +7572,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7567,7 +7588,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7583,7 +7604,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7599,7 +7620,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7615,7 +7636,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7631,7 +7652,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7647,7 +7668,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7663,7 +7684,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7679,7 +7700,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7695,7 +7716,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7711,7 +7732,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7727,7 +7748,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7743,7 +7764,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7759,7 +7780,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7775,7 +7796,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7791,7 +7812,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7807,7 +7828,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7823,7 +7844,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7839,7 +7860,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7855,7 +7876,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7871,7 +7892,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7887,7 +7908,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7903,7 +7924,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7919,7 +7940,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7935,7 +7956,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7951,7 +7972,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7967,7 +7988,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7983,7 +8004,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7999,7 +8020,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -8015,7 +8036,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -8031,7 +8052,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -8047,7 +8068,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -8063,7 +8084,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -8079,7 +8100,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -8095,7 +8116,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -8111,7 +8132,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8127,7 +8148,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8143,7 +8164,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8159,7 +8180,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8175,7 +8196,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8191,7 +8212,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8207,7 +8228,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8223,7 +8244,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8239,7 +8260,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8255,7 +8276,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8271,7 +8292,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8287,7 +8308,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8303,7 +8324,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8319,7 +8340,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8335,7 +8356,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8351,7 +8372,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8367,7 +8388,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8383,7 +8404,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8399,7 +8420,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8415,7 +8436,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8431,7 +8452,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8447,7 +8468,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8463,7 +8484,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8479,7 +8500,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8495,7 +8516,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8511,7 +8532,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8527,7 +8548,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -8543,7 +8564,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -8559,7 +8580,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -8575,7 +8596,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -8591,7 +8612,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -8607,7 +8628,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -8623,7 +8644,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -8639,7 +8660,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="41"/>
       <c r="B141" s="15"/>
       <c r="C141" s="42"/>
@@ -8670,10 +8691,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8696,7 +8717,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8704,21 +8725,21 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8731,7 +8752,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8760,7 +8781,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>52.625</v>
       </c>
@@ -8790,17 +8811,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8821,7 +8842,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8848,7 +8869,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8874,7 +8895,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8900,7 +8921,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8926,7 +8947,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8952,7 +8973,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8978,7 +8999,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9004,7 +9025,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9030,7 +9051,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9050,7 +9071,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9070,7 +9091,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9090,7 +9111,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9111,7 +9132,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9132,7 +9153,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9153,7 +9174,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9174,7 +9195,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9195,7 +9216,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9216,7 +9237,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9237,7 +9258,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9258,7 +9279,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9279,7 +9300,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9300,7 +9321,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9321,7 +9342,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9342,7 +9363,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9363,7 +9384,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9384,7 +9405,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9405,7 +9426,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9426,7 +9447,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9447,7 +9468,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9468,7 +9489,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9489,7 +9510,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9510,7 +9531,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9519,7 +9540,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9528,7 +9549,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9537,7 +9558,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9546,7 +9567,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9555,7 +9576,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9564,7 +9585,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9573,7 +9594,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9582,7 +9603,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9591,7 +9612,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9600,7 +9621,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9609,7 +9630,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9618,7 +9639,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9627,7 +9648,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9636,7 +9657,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9645,7 +9666,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9654,7 +9675,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9663,7 +9684,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9672,7 +9693,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9681,7 +9702,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9690,7 +9711,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9699,7 +9720,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9708,7 +9729,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9717,7 +9738,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9726,7 +9747,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9735,7 +9756,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9744,7 +9765,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9753,7 +9774,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9762,7 +9783,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9771,7 +9792,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
